--- a/Industrials/Lifco AB.xlsx
+++ b/Industrials/Lifco AB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E4322-D464-C94D-B0A1-AA2EEECC350E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A17F5-718D-654B-8FCB-77866FFE9AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="251">
   <si>
     <t>2011 Y</t>
   </si>
@@ -844,6 +844,9 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -856,7 +859,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1000,6 +1003,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1083,7 +1092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1128,65 +1137,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1195,23 +1147,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,7 +1243,137 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1229,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1293,258 +1445,268 @@
     <xf numFmtId="3" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="14" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="14" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="18" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1599,7 +1761,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1738,11 +1900,9 @@
     <v>Powered by Refinitiv</v>
     <v>956.5</v>
     <v>140.30000000000001</v>
-    <v>1.5311999999999999</v>
-    <v>1.9</v>
-    <v>8.8170000000000002E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.5263</v>
+    <v>-1.5</v>
+    <v>-6.5449999999999996E-3</v>
     <v>SEK</v>
     <v>Lifco publ AB, formerly Lifco AB, is a Sweden-based investment company. It is engaged in acquisition and development of niche companies. Its aim is to secure improvement of subsidiaries’ earnings and to deliver cash flows. It has long-term investment holdings, focus on profitability and decentralized organization. The Company is active in three operating segments: Dental, comprising suppliers of consumable goods, materials, equipment and technical services to dentists; Demolition &amp; Tools, providing demolition robots, and attachments to cranes and excavators; and Systems Solutions, offering vehicle interiors, relining, contract manufacturing, environmental technology and sawmill equipment. Its portfolio includes around 100 companies in 30 countries.</v>
     <v>6806</v>
@@ -1750,25 +1910,24 @@
     <v>XSTO</v>
     <v>XSTO</v>
     <v>Verkmastaregatan 1, ENKOPING, UPPSALA, 745 85 SE</v>
-    <v>217.6</v>
+    <v>230.8</v>
     <v>Holding Companies</v>
     <v>Stock</v>
-    <v>45239.708333333336</v>
+    <v>45260.708333333336</v>
     <v>0</v>
-    <v>212.3</v>
-    <v>91336760000</v>
+    <v>226.1</v>
+    <v>97143310000</v>
     <v>Lifco AB (publ)</v>
     <v>Lifco AB (publ)</v>
-    <v>212.3</v>
-    <v>31.33</v>
-    <v>215.5</v>
-    <v>217.4</v>
-    <v>217.4</v>
+    <v>230.1</v>
+    <v>33.1</v>
+    <v>229.2</v>
+    <v>227.7</v>
     <v>423836500</v>
     <v>LIFCO B</v>
     <v>Lifco AB (publ) (XSTO:LIFCO B)</v>
-    <v>271458</v>
-    <v>289520</v>
+    <v>770587</v>
+    <v>178190</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1788,18 +1947,18 @@
     <v>Powered by Refinitiv</v>
     <v>9.8699999999999996E-2</v>
     <v>8.8599999999999998E-2</v>
-    <v>-1E-4</v>
-    <v>-1.093E-3</v>
+    <v>4.0000000000000002E-4</v>
+    <v>4.202E-3</v>
     <v>USD</v>
     <v>SEK</v>
-    <v>9.1499999999999998E-2</v>
+    <v>9.5699999999999993E-2</v>
     <v>Currency Pair</v>
-    <v>45239.963275462964</v>
-    <v>9.1499999999999998E-2</v>
+    <v>45261.321412037039</v>
+    <v>9.5100000000000004E-2</v>
     <v>Swedish Krona/US Dollar FX Cross Rate</v>
-    <v>9.1499999999999998E-2</v>
-    <v>9.1499999999999998E-2</v>
-    <v>9.1399999999999995E-2</v>
+    <v>9.5200000000000007E-2</v>
+    <v>9.5200000000000007E-2</v>
+    <v>9.5600000000000004E-2</v>
     <v>SEKUSD</v>
     <v>SEK/USD</v>
   </rv>
@@ -1818,11 +1977,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>9.75</v>
+    <v>11.1</v>
     <v>8.08</v>
-    <v>1.5311999999999999</v>
-    <v>0.26</v>
-    <v>2.7397000000000001E-2</v>
+    <v>1.5263</v>
+    <v>8.4500000000000006E-2</v>
+    <v>7.7410000000000005E-3</v>
     <v>USD</v>
     <v>Lifco publ AB, formerly Lifco AB, is a Sweden-based investment company. It is engaged in acquisition and development of niche companies. Its aim is to secure improvement of subsidiaries’ earnings and to deliver cash flows. It has long-term investment holdings, focus on profitability and decentralized organization. The Company is active in three operating segments: Dental, comprising suppliers of consumable goods, materials, equipment and technical services to dentists; Demolition &amp; Tools, providing demolition robots, and attachments to cranes and excavators; and Systems Solutions, offering vehicle interiors, relining, contract manufacturing, environmental technology and sawmill equipment. Its portfolio includes around 100 companies in 30 countries.</v>
     <v>6806</v>
@@ -1830,22 +1989,22 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>Verkmastaregatan 1, ENKOPING, UPPSALA, 745 85 SE</v>
-    <v>9.75</v>
+    <v>11</v>
     <v>Holding Companies</v>
     <v>Stock</v>
-    <v>45238.048611111109</v>
-    <v>9.75</v>
-    <v>89938090000</v>
+    <v>45260.796283378906</v>
+    <v>11</v>
+    <v>97143310000</v>
     <v>Lifco AB (publ)</v>
     <v>Lifco AB (publ)</v>
-    <v>9.75</v>
-    <v>9.49</v>
-    <v>9.75</v>
+    <v>11</v>
+    <v>10.9155</v>
+    <v>11</v>
     <v>423836500</v>
     <v>LFCBY</v>
     <v>Lifco AB (publ) (OTCM:LFCBY)</v>
-    <v>503</v>
-    <v>289520</v>
+    <v>246</v>
+    <v>178190</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1877,8 +2036,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1899,7 +2056,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1987,7 +2143,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1998,16 +2154,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2144,19 +2297,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Nordic</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="5">
       <v>1</v>
@@ -2262,9 +2409,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2272,9 +2416,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="^Order" t="spba"/>
@@ -13862,7 +14003,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13870,1739 +14011,1796 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="1">
+    <row r="1" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+    </row>
+    <row r="2" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" cm="1">
+      <c r="A3" s="69" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>8357313540</v>
-      </c>
-      <c r="B3" s="38" t="s">
+        <v>9248043112</v>
+      </c>
+      <c r="B3" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="71">
         <f>Financials!O8*0.01</f>
         <v>0.43200000000000005</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="71">
         <f>SUM(C11:E11)/3</f>
         <v>0.11882652289879014</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="73">
         <f>AVERAGE(Financials!K129:O129)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="42">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>6733595911.5341558</v>
-      </c>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="74">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>6506205893.1292658</v>
+      </c>
+      <c r="J3" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="76">
         <f>(Financials!O172*-1)/A3</f>
-        <v>1.0911727502328458E-2</v>
-      </c>
-      <c r="L3" s="40" t="s">
+        <v>9.8607593947816798E-3</v>
+      </c>
+      <c r="L3" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="117" t="s">
+      <c r="M3" s="37"/>
+      <c r="N3" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
+      <c r="A4" s="78">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-805551197</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="38">
         <f>Financials!O17*0.01</f>
         <v>0.19120000000000001</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="38">
         <f>SUM(C13:E13)/3</f>
         <v>0.1918287605723589</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="81">
         <f>A5*(1+(5*G3))</f>
         <v>423836500</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="46">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>5877396615.2118664</v>
-      </c>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="82">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>5676743429.2959919</v>
+      </c>
+      <c r="J4" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="52" cm="1">
+      <c r="K4" s="83" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>8.8170000000000002E-3</v>
-      </c>
-      <c r="L4" s="51" t="s">
+        <v>-6.5449999999999996E-3</v>
+      </c>
+      <c r="L4" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="119" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="45"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" cm="1">
+      <c r="A5" s="78" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>423836500</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="53">
-        <f>Financials!O34*0.01</f>
-        <v>0.1313</v>
-      </c>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="38">
+        <f>F14</f>
+        <v>0.13128615932354251</v>
+      </c>
+      <c r="D5" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="48">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="38">
+        <f>SUM(C16:E16)/3</f>
         <v>0.1858460668857165</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="81">
         <f>Financials!O56</f>
         <v>146926761</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="82">
         <f>I4+G5-G6</f>
-        <v>5071845418.2118664</v>
-      </c>
-      <c r="J5" s="49" t="s">
+        <v>4871192232.2959919</v>
+      </c>
+      <c r="J5" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="54" cm="1">
+      <c r="K5" s="86" cm="1">
         <f t="array" ref="K5">_FV(K9,"Price")</f>
-        <v>9.75</v>
-      </c>
-      <c r="L5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="55" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="104">
         <f>Financials!O20</f>
         <v>-21386315</v>
       </c>
-      <c r="P5" s="45"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57">
+      <c r="A6" s="88">
         <f>O20/F10</f>
-        <v>3.7193206675567425</v>
-      </c>
-      <c r="B6" s="47" t="s">
+        <v>4.1157290218068532</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="48">
-        <f>Financials!O190</f>
-        <v>0.13103652671421964</v>
-      </c>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="38">
+        <f>F17</f>
+        <v>0.16288384512683579</v>
+      </c>
+      <c r="D6" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="38">
         <f>Financials!O33/Financials!O126</f>
         <v>0.20688952286473317</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="81">
         <f>Financials!O96+Financials!O105</f>
         <v>952477958</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="83">
         <f>N25</f>
-        <v>9.1977586110783702E-2</v>
-      </c>
-      <c r="J6" s="51" t="s">
+        <v>9.4318433416973255E-2</v>
+      </c>
+      <c r="J6" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="89">
         <f>I5/G4</f>
-        <v>11.966514017107697</v>
-      </c>
-      <c r="L6" s="61" t="s">
+        <v>11.49309281361089</v>
+      </c>
+      <c r="L6" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="62" t="s">
+      <c r="M6" s="37"/>
+      <c r="N6" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="63">
+      <c r="O6" s="104">
         <f>Financials!O96</f>
         <v>641033960</v>
       </c>
-      <c r="P6" s="45"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="91">
         <f>O20/F12</f>
-        <v>28.329876406779661</v>
-      </c>
-      <c r="B7" s="65" t="s">
+        <v>31.349298684745762</v>
+      </c>
+      <c r="B7" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="66">
-        <f>F14/A3</f>
-        <v>4.3793977364644861E-2</v>
-      </c>
-      <c r="D7" s="67" t="s">
+      <c r="C7" s="93">
+        <f>F15/A3</f>
+        <v>3.957594007375341E-2</v>
+      </c>
+      <c r="D7" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="94">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.13295809008975087</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="95">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.69900801773852017</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="97">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="99">
         <f>K6/K5-1</f>
-        <v>0.22733477098540478</v>
-      </c>
-      <c r="L7" s="74" t="s">
+        <v>4.4826619419171765E-2</v>
+      </c>
+      <c r="L7" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="62" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="63">
+      <c r="O7" s="104">
         <f>Financials!O105</f>
         <v>311443998</v>
       </c>
-      <c r="P7" s="45"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="107" cm="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="L8" s="108" t="e" vm="2">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="L8" s="102" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="76" t="s">
+      <c r="M8" s="37"/>
+      <c r="N8" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="106">
         <f>O5/(O6+O7)</f>
         <v>-2.2453343744464897E-2</v>
       </c>
-      <c r="P8" s="45"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50">
         <v>2019</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="50">
         <v>2020</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="50">
         <v>2021</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="51">
         <v>2022</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="52">
         <v>2023</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="53">
         <v>2024</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="53">
         <v>2025</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="53">
         <v>2026</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="54">
         <v>2027</v>
       </c>
-      <c r="K9" s="109" t="e" vm="3">
+      <c r="K9" s="44" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="82"/>
-      <c r="N9" s="62" t="s">
+      <c r="M9" s="40"/>
+      <c r="N9" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="63">
+      <c r="O9" s="104">
         <f>Financials!O25</f>
         <v>103506061</v>
       </c>
-      <c r="P9" s="45"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="56">
         <v>1479000709</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="56">
         <v>1678163301</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="56">
         <v>1930670370</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="57">
         <v>2068429493</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="56">
         <v>2247000000</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="56">
         <v>2330000000</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="56">
         <v>2374000000</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="56">
         <v>2450000000</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="57">
         <v>2600000000</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="L10" s="82"/>
-      <c r="N10" s="62" t="s">
+      <c r="L10" s="40"/>
+      <c r="N10" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="63">
+      <c r="O10" s="104">
         <f>Financials!O24</f>
         <v>389767905</v>
       </c>
-      <c r="P10" s="45"/>
+      <c r="P10" s="37"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88">
+      <c r="A11" s="59"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.13466024105874852</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="41">
         <f t="shared" si="0"/>
         <v>0.15046632759132184</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
         <v>7.1353000046300075E-2</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="42">
         <f t="shared" si="0"/>
         <v>8.633144499453338E-2</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="41">
         <f t="shared" si="0"/>
         <v>3.6938139741877984E-2</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="41">
         <f t="shared" si="0"/>
         <v>1.8884120171673846E-2</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>3.2013479359730423E-2</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="60">
         <f t="shared" si="0"/>
         <v>6.1224489795918435E-2</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="60">
         <f>SUM(F11:J11)/5</f>
         <v>4.7078334812746814E-2</v>
       </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="62" t="s">
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="91">
+      <c r="O11" s="107">
         <f>O9/O10</f>
         <v>0.2655581941771219</v>
       </c>
-      <c r="P11" s="45"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="56">
         <v>160772558</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="56">
         <v>201764373</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="56">
         <v>263976098</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="56">
         <v>267191338</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="61">
         <v>295000000</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="56">
         <v>305000000</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="56">
         <v>329000000</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="56">
         <v>345000000</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="57">
         <v>370000000</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="92" t="s">
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="93">
+      <c r="O12" s="107">
         <f>O8*(1-O11)</f>
         <v>-1.6490674326446624E-2</v>
       </c>
-      <c r="P12" s="45"/>
+      <c r="P12" s="37"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88">
+      <c r="A13" s="59"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.25496773522755056</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="41">
         <f t="shared" si="1"/>
         <v>0.30833850434040699</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="41">
         <f t="shared" si="1"/>
         <v>1.2180042149119163E-2</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="42">
         <f t="shared" si="1"/>
         <v>0.10407770778856618</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="41">
         <f t="shared" si="1"/>
         <v>3.3898305084745672E-2</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="41">
         <f t="shared" si="1"/>
         <v>7.8688524590163844E-2</v>
       </c>
-      <c r="I13" s="88">
+      <c r="I13" s="41">
         <f t="shared" si="1"/>
         <v>4.8632218844984809E-2</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="60">
         <f t="shared" si="1"/>
         <v>7.2463768115942129E-2</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="60">
         <f>SUM(F13:J13)/5</f>
         <v>6.7552104884880532E-2</v>
       </c>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="119" t="s">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="120"/>
-      <c r="P13" s="45"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="37"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="46">
+        <f>B12/B10</f>
+        <v>0.10870350299473724</v>
+      </c>
+      <c r="C14" s="46">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.12022928452777552</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.13672768904616275</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.12917594672877739</v>
+      </c>
+      <c r="F14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.13128615932354251</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.13090128755364808</v>
+      </c>
+      <c r="H14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.13858466722830665</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.14081632653061224</v>
+      </c>
+      <c r="J14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.1423076923076923</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="107">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="37"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B15" s="56">
         <v>185008059</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C15" s="56">
         <v>316014198</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D15" s="56">
         <v>295547852</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E15" s="56">
         <v>270187412</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F15" s="61">
         <v>366000000</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G15" s="56">
         <v>385000000</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H15" s="56">
         <v>400000000</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I15" s="56">
         <v>415000000</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J15" s="57">
         <v>440000000</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K15" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="91">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="45"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="103" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="108" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.5263</v>
+      </c>
+      <c r="P15" s="37"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="63"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.70811044506985499</v>
       </c>
-      <c r="D15" s="88">
-        <f t="shared" si="2"/>
+      <c r="D16" s="41">
+        <f t="shared" si="3"/>
         <v>-6.4764007850052319E-2</v>
       </c>
-      <c r="E15" s="88">
-        <f t="shared" si="2"/>
+      <c r="E16" s="41">
+        <f t="shared" si="3"/>
         <v>-8.5808236562653128E-2</v>
       </c>
-      <c r="F15" s="89">
-        <f t="shared" si="2"/>
+      <c r="F16" s="42">
+        <f t="shared" si="3"/>
         <v>0.35461529199591291</v>
       </c>
-      <c r="G15" s="88">
-        <f t="shared" si="2"/>
+      <c r="G16" s="41">
+        <f t="shared" si="3"/>
         <v>5.1912568306010876E-2</v>
       </c>
-      <c r="H15" s="88">
-        <f t="shared" si="2"/>
+      <c r="H16" s="41">
+        <f t="shared" si="3"/>
         <v>3.8961038961038863E-2</v>
       </c>
-      <c r="I15" s="88">
-        <f t="shared" si="2"/>
+      <c r="I16" s="41">
+        <f t="shared" si="3"/>
         <v>3.7500000000000089E-2</v>
       </c>
-      <c r="J15" s="88">
-        <f t="shared" si="2"/>
+      <c r="J16" s="60">
+        <f t="shared" si="3"/>
         <v>6.024096385542177E-2</v>
       </c>
-      <c r="K15" s="90">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="60">
+        <f>SUM(F16:J16)/5</f>
         <v>0.1086459726236769</v>
       </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="95" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5311999999999999</v>
-      </c>
-      <c r="P15" s="45"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="107">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="37"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="46">
+        <f>B15/B10</f>
+        <v>0.12508990555189789</v>
+      </c>
+      <c r="C17" s="46">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.18830956308703117</v>
+      </c>
+      <c r="D17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.15308043081429792</v>
+      </c>
+      <c r="E17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.1306244244313722</v>
+      </c>
+      <c r="F17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.16288384512683579</v>
+      </c>
+      <c r="G17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.16523605150214593</v>
+      </c>
+      <c r="H17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.16849199663016007</v>
+      </c>
+      <c r="I17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.16938775510204082</v>
+      </c>
+      <c r="J17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.16923076923076924</v>
+      </c>
+      <c r="K17" s="48"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="109" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="110">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.105730927</v>
+      </c>
+      <c r="P17" s="37"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B18" s="65">
         <v>0.116135218703537</v>
       </c>
-      <c r="C16" s="96">
+      <c r="C18" s="65">
         <v>0.12476088855868325</v>
       </c>
-      <c r="D16" s="96">
+      <c r="D18" s="65">
         <v>0.13336447001259075</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E18" s="65">
         <v>0.13724423674004185</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="91">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="45"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="101" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="102">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10433964800000001</v>
-      </c>
-      <c r="P17" s="45"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="119" t="s">
+      <c r="F18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="120"/>
-      <c r="P18" s="45"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Holding Companies</v>
-      </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="121" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1993</v>
-      </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="62" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="104">
+      <c r="O19" s="111">
         <f>O6+O7</f>
         <v>952477958</v>
       </c>
-      <c r="P19" s="45"/>
+      <c r="P19" s="37"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" s="111">
+        <f>A3</f>
+        <v>9248043112</v>
+      </c>
+      <c r="P20" s="37"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="124" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Holding Companies</v>
+      </c>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1993</v>
+      </c>
+      <c r="D21" s="125"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="103" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="111">
+        <f>O19+O20</f>
+        <v>10200521070</v>
+      </c>
+      <c r="P21" s="37"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="124" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Lifco publ AB, formerly Lifco AB, is a Sweden-based investment company. It is engaged in acquisition and development of niche companies. Its aim is to secure improvement of subsidiaries’ earnings and to deliver cash flows. It has long-term investment holdings, focus on profitability and decentralized organization. The Company is active in three operating segments: Dental, comprising suppliers of consumable goods, materials, equipment and technical services to dentists; Demolition &amp; Tools, providing demolition robots, and attachments to cranes and excavators; and Systems Solutions, offering vehicle interiors, relining, contract manufacturing, environmental technology and sawmill equipment. Its portfolio includes around 100 companies in 30 countries.</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="O20" s="104">
-        <f>A3</f>
-        <v>8357313540</v>
-      </c>
-      <c r="P20" s="45"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="104">
-        <f>O19+O20</f>
-        <v>9309791498</v>
-      </c>
-      <c r="P21" s="45"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="76" t="s">
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="105">
+      <c r="O22" s="112">
         <f>(O19/O21)</f>
-        <v>0.10230926849485496</v>
-      </c>
-      <c r="P22" s="45"/>
+        <v>9.3375421849895751E-2</v>
+      </c>
+      <c r="P22" s="37"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="101" t="s">
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="106">
+      <c r="O23" s="113">
         <f>O20/O21</f>
-        <v>0.897690731505145</v>
-      </c>
-      <c r="P23" s="45"/>
+        <v>0.90662457815010422</v>
+      </c>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="111" t="s">
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="112"/>
-      <c r="P24" s="45"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="113">
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.1977586110783702E-2</v>
-      </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="45"/>
+        <v>9.4318433416973255E-2</v>
+      </c>
+      <c r="O25" s="117"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="82"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="82"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="82"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="82"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="82"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="45"/>
-      <c r="P66" s="45"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="45"/>
-      <c r="P68" s="45"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="45"/>
-      <c r="P71" s="45"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="45"/>
-      <c r="P75" s="45"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="45"/>
-      <c r="P76" s="45"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="45"/>
-      <c r="P78" s="45"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="45"/>
-      <c r="P79" s="45"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="45"/>
-      <c r="P80" s="45"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="45"/>
-      <c r="P82" s="45"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="45"/>
-      <c r="P83" s="45"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="45"/>
-      <c r="P84" s="45"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="45"/>
-      <c r="P85" s="45"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="45"/>
-      <c r="P86" s="45"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="45"/>
-      <c r="P87" s="45"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="45"/>
-      <c r="P88" s="45"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="45"/>
-      <c r="P89" s="45"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="45"/>
-      <c r="P90" s="45"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="45"/>
-      <c r="P91" s="45"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="45"/>
-      <c r="P93" s="45"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="45"/>
-      <c r="P94" s="45"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="45"/>
-      <c r="P95" s="45"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="45"/>
-      <c r="P97" s="45"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="45"/>
-      <c r="P98" s="45"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="45"/>
-      <c r="P99" s="45"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="45"/>
-      <c r="P100" s="45"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="45"/>
-      <c r="P102" s="45"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="45"/>
-      <c r="P103" s="45"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="45"/>
-      <c r="P105" s="45"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="45"/>
-      <c r="P106" s="45"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="37"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="45"/>
-      <c r="P107" s="45"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="37"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="45"/>
-      <c r="P108" s="45"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="45"/>
-      <c r="P109" s="45"/>
+      <c r="O109" s="37"/>
+      <c r="P109" s="37"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="45"/>
-      <c r="P110" s="45"/>
+      <c r="O110" s="37"/>
+      <c r="P110" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15610,8 +15808,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/OTCPK:LFCB.Y/explorer/revenue_proj/" xr:uid="{C680169E-31B0-9244-AC49-36ED948D966B}"/>

--- a/Industrials/Lifco AB.xlsx
+++ b/Industrials/Lifco AB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A17F5-718D-654B-8FCB-77866FFE9AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26AC2B-94E5-8745-B82B-597B25E3047C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1381,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1705,7 +1705,10 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1744,6 +1747,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1773,6 +1777,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1900,9 +1905,11 @@
     <v>Powered by Refinitiv</v>
     <v>956.5</v>
     <v>140.30000000000001</v>
-    <v>1.5263</v>
-    <v>-1.5</v>
-    <v>-6.5449999999999996E-3</v>
+    <v>1.5298</v>
+    <v>1.7</v>
+    <v>7.4660000000000004E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>SEK</v>
     <v>Lifco publ AB, formerly Lifco AB, is a Sweden-based investment company. It is engaged in acquisition and development of niche companies. Its aim is to secure improvement of subsidiaries’ earnings and to deliver cash flows. It has long-term investment holdings, focus on profitability and decentralized organization. The Company is active in three operating segments: Dental, comprising suppliers of consumable goods, materials, equipment and technical services to dentists; Demolition &amp; Tools, providing demolition robots, and attachments to cranes and excavators; and Systems Solutions, offering vehicle interiors, relining, contract manufacturing, environmental technology and sawmill equipment. Its portfolio includes around 100 companies in 30 countries.</v>
     <v>6806</v>
@@ -1910,23 +1917,24 @@
     <v>XSTO</v>
     <v>XSTO</v>
     <v>Verkmastaregatan 1, ENKOPING, UPPSALA, 745 85 SE</v>
-    <v>230.8</v>
+    <v>229.9</v>
     <v>Holding Companies</v>
     <v>Stock</v>
-    <v>45260.708333333336</v>
+    <v>45261.708333333336</v>
     <v>0</v>
-    <v>226.1</v>
-    <v>97143310000</v>
+    <v>226.5</v>
+    <v>96507560000</v>
     <v>Lifco AB (publ)</v>
     <v>Lifco AB (publ)</v>
-    <v>230.1</v>
+    <v>228.4</v>
     <v>33.1</v>
-    <v>229.2</v>
     <v>227.7</v>
+    <v>229.4</v>
+    <v>229.4</v>
     <v>423836500</v>
     <v>LIFCO B</v>
     <v>Lifco AB (publ) (XSTO:LIFCO B)</v>
-    <v>770587</v>
+    <v>192895</v>
     <v>178190</v>
     <v>1993</v>
   </rv>
@@ -1947,18 +1955,15 @@
     <v>Powered by Refinitiv</v>
     <v>9.8699999999999996E-2</v>
     <v>8.8599999999999998E-2</v>
-    <v>4.0000000000000002E-4</v>
-    <v>4.202E-3</v>
+    <v>1.1999999999999999E-3</v>
+    <v>1.2605E-2</v>
     <v>USD</v>
     <v>SEK</v>
-    <v>9.5699999999999993E-2</v>
     <v>Currency Pair</v>
-    <v>45261.321412037039</v>
-    <v>9.5100000000000004E-2</v>
+    <v>45261.916678240741</v>
     <v>Swedish Krona/US Dollar FX Cross Rate</v>
     <v>9.5200000000000007E-2</v>
-    <v>9.5200000000000007E-2</v>
-    <v>9.5600000000000004E-2</v>
+    <v>9.64E-2</v>
     <v>SEKUSD</v>
     <v>SEK/USD</v>
   </rv>
@@ -1979,9 +1984,9 @@
     <v>Powered by Refinitiv</v>
     <v>11.1</v>
     <v>8.08</v>
-    <v>1.5263</v>
-    <v>8.4500000000000006E-2</v>
-    <v>7.7410000000000005E-3</v>
+    <v>1.5298</v>
+    <v>0.06</v>
+    <v>5.4549999999999998E-3</v>
     <v>USD</v>
     <v>Lifco publ AB, formerly Lifco AB, is a Sweden-based investment company. It is engaged in acquisition and development of niche companies. Its aim is to secure improvement of subsidiaries’ earnings and to deliver cash flows. It has long-term investment holdings, focus on profitability and decentralized organization. The Company is active in three operating segments: Dental, comprising suppliers of consumable goods, materials, equipment and technical services to dentists; Demolition &amp; Tools, providing demolition robots, and attachments to cranes and excavators; and Systems Solutions, offering vehicle interiors, relining, contract manufacturing, environmental technology and sawmill equipment. Its portfolio includes around 100 companies in 30 countries.</v>
     <v>6806</v>
@@ -1989,21 +1994,21 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>Verkmastaregatan 1, ENKOPING, UPPSALA, 745 85 SE</v>
-    <v>11</v>
+    <v>11.06</v>
     <v>Holding Companies</v>
     <v>Stock</v>
-    <v>45260.796283378906</v>
-    <v>11</v>
-    <v>97143310000</v>
+    <v>45262.048611111109</v>
+    <v>11.06</v>
+    <v>96507560000</v>
     <v>Lifco AB (publ)</v>
     <v>Lifco AB (publ)</v>
+    <v>11.06</v>
     <v>11</v>
-    <v>10.9155</v>
-    <v>11</v>
+    <v>11.06</v>
     <v>423836500</v>
     <v>LFCBY</v>
     <v>Lifco AB (publ) (OTCM:LFCBY)</v>
-    <v>246</v>
+    <v>100</v>
     <v>178190</v>
     <v>1993</v>
   </rv>
@@ -2036,6 +2041,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2056,6 +2063,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2084,12 +2092,9 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2143,7 +2148,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2154,13 +2159,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2187,7 +2195,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="27">
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2205,9 +2213,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2297,13 +2302,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Nordic</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="5">
       <v>1</v>
@@ -2314,10 +2325,7 @@
       <v>1</v>
     </spb>
     <spb s="7">
-      <v>10</v>
-      <v>10</v>
       <v>3</v>
-      <v>10</v>
       <v>10</v>
       <v>10</v>
       <v>5</v>
@@ -2409,6 +2417,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2416,6 +2427,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="^Order" t="spba"/>
@@ -2426,10 +2440,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -14002,7 +14013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DD8C9A-4E5B-2949-93DF-71D6AA96D808}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -14052,7 +14063,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>9248043112</v>
+        <v>9187519712</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>200</v>
@@ -14080,14 +14091,14 @@
       </c>
       <c r="I3" s="74">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>6506205893.1292658</v>
+        <v>6500314811.1485987</v>
       </c>
       <c r="J3" s="75" t="s">
         <v>204</v>
       </c>
       <c r="K3" s="76">
         <f>(Financials!O172*-1)/A3</f>
-        <v>9.8607593947816798E-3</v>
+        <v>9.9257178061769365E-3</v>
       </c>
       <c r="L3" s="77" t="s">
         <v>205</v>
@@ -14130,14 +14141,14 @@
       </c>
       <c r="I4" s="82">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>5676743429.2959919</v>
+        <v>5671545297.6724672</v>
       </c>
       <c r="J4" s="80" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="83" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-6.5449999999999996E-3</v>
+        <v>7.4660000000000004E-3</v>
       </c>
       <c r="L4" s="84" t="s">
         <v>212</v>
@@ -14180,14 +14191,14 @@
       </c>
       <c r="I5" s="82">
         <f>I4+G5-G6</f>
-        <v>4871192232.2959919</v>
+        <v>4865994100.6724672</v>
       </c>
       <c r="J5" s="80" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="86" cm="1">
         <f t="array" ref="K5">_FV(K9,"Price")</f>
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="L5" s="87" t="s">
         <v>219</v>
@@ -14205,7 +14216,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="88">
         <f>O20/F10</f>
-        <v>4.1157290218068532</v>
+        <v>4.0887938193146418</v>
       </c>
       <c r="B6" s="79" t="s">
         <v>221</v>
@@ -14233,14 +14244,14 @@
       </c>
       <c r="I6" s="83">
         <f>N25</f>
-        <v>9.4318433416973255E-2</v>
+        <v>9.438125507806118E-2</v>
       </c>
       <c r="J6" s="80" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="89">
         <f>I5/G4</f>
-        <v>11.49309281361089</v>
+        <v>11.480828339872728</v>
       </c>
       <c r="L6" s="90" t="s">
         <v>225</v>
@@ -14258,14 +14269,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <f>O20/F12</f>
-        <v>31.349298684745762</v>
+        <v>31.144134616949152</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="93">
         <f>F15/A3</f>
-        <v>3.957594007375341E-2</v>
+        <v>3.9836649223398149E-2</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>228</v>
@@ -14292,7 +14303,7 @@
       </c>
       <c r="K7" s="99">
         <f>K6/K5-1</f>
-        <v>4.4826619419171765E-2</v>
+        <v>3.8049578650336979E-2</v>
       </c>
       <c r="L7" s="90" t="s">
         <v>231</v>
@@ -14656,7 +14667,7 @@
       </c>
       <c r="O15" s="108" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5263</v>
+        <v>1.5298</v>
       </c>
       <c r="P15" s="37"/>
     </row>
@@ -14757,7 +14768,7 @@
       </c>
       <c r="O17" s="110">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.105730927</v>
+        <v>0.10587544200000001</v>
       </c>
       <c r="P17" s="37"/>
     </row>
@@ -14833,21 +14844,21 @@
       </c>
       <c r="O20" s="111">
         <f>A3</f>
-        <v>9248043112</v>
+        <v>9187519712</v>
       </c>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="124" t="str" cm="1">
+      <c r="A21" s="125" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Holding Companies</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="125" cm="1">
+      <c r="B21" s="125"/>
+      <c r="C21" s="126" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1993</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="43"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -14861,7 +14872,7 @@
       </c>
       <c r="O21" s="111">
         <f>O19+O20</f>
-        <v>10200521070</v>
+        <v>10139997670</v>
       </c>
       <c r="P21" s="37"/>
     </row>
@@ -14887,7 +14898,7 @@
       </c>
       <c r="O22" s="112">
         <f>(O19/O21)</f>
-        <v>9.3375421849895751E-2</v>
+        <v>9.3932759059499868E-2</v>
       </c>
       <c r="P22" s="37"/>
     </row>
@@ -14910,7 +14921,7 @@
       </c>
       <c r="O23" s="113">
         <f>O20/O21</f>
-        <v>0.90662457815010422</v>
+        <v>0.90606724094050017</v>
       </c>
       <c r="P23" s="37"/>
     </row>
@@ -14950,7 +14961,7 @@
       <c r="M25" s="40"/>
       <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.4318433416973255E-2</v>
+        <v>9.438125507806118E-2</v>
       </c>
       <c r="O25" s="117"/>
       <c r="P25" s="37"/>

--- a/Industrials/Lifco AB.xlsx
+++ b/Industrials/Lifco AB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26AC2B-94E5-8745-B82B-597B25E3047C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66155C30-F158-C640-B1C3-B00196E25D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1381,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1702,14 +1702,17 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1742,10 +1745,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1765,7 +1770,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1778,6 +1783,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1905,9 +1912,9 @@
     <v>Powered by Refinitiv</v>
     <v>956.5</v>
     <v>140.30000000000001</v>
-    <v>1.5298</v>
-    <v>1.7</v>
-    <v>7.4660000000000004E-3</v>
+    <v>1.5297000000000001</v>
+    <v>1.2</v>
+    <v>5.0229999999999997E-3</v>
     <v>0</v>
     <v>0</v>
     <v>SEK</v>
@@ -1917,25 +1924,25 @@
     <v>XSTO</v>
     <v>XSTO</v>
     <v>Verkmastaregatan 1, ENKOPING, UPPSALA, 745 85 SE</v>
-    <v>229.9</v>
+    <v>241.3</v>
     <v>Holding Companies</v>
     <v>Stock</v>
-    <v>45261.708333333336</v>
+    <v>45268.708333333336</v>
     <v>0</v>
-    <v>226.5</v>
-    <v>96507560000</v>
+    <v>236.8</v>
+    <v>101254500000</v>
     <v>Lifco AB (publ)</v>
     <v>Lifco AB (publ)</v>
-    <v>228.4</v>
-    <v>33.1</v>
-    <v>227.7</v>
-    <v>229.4</v>
-    <v>229.4</v>
+    <v>239</v>
+    <v>34.729999999999997</v>
+    <v>238.9</v>
+    <v>240.1</v>
+    <v>240.1</v>
     <v>423836500</v>
     <v>LIFCO B</v>
     <v>Lifco AB (publ) (XSTO:LIFCO B)</v>
-    <v>192895</v>
-    <v>178190</v>
+    <v>208000</v>
+    <v>242650</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1955,15 +1962,15 @@
     <v>Powered by Refinitiv</v>
     <v>9.8699999999999996E-2</v>
     <v>8.8599999999999998E-2</v>
-    <v>1.1999999999999999E-3</v>
-    <v>1.2605E-2</v>
+    <v>-8.0000000000000004E-4</v>
+    <v>-8.3160000000000005E-3</v>
     <v>USD</v>
     <v>SEK</v>
     <v>Currency Pair</v>
-    <v>45261.916678240741</v>
+    <v>45268.916666666664</v>
     <v>Swedish Krona/US Dollar FX Cross Rate</v>
-    <v>9.5200000000000007E-2</v>
-    <v>9.64E-2</v>
+    <v>9.6199999999999994E-2</v>
+    <v>9.5399999999999999E-2</v>
     <v>SEKUSD</v>
     <v>SEK/USD</v>
   </rv>
@@ -1982,11 +1989,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>11.1</v>
+    <v>11.32</v>
     <v>8.08</v>
-    <v>1.5298</v>
-    <v>0.06</v>
-    <v>5.4549999999999998E-3</v>
+    <v>1.5290999999999999</v>
+    <v>0.26</v>
+    <v>2.3508000000000001E-2</v>
     <v>USD</v>
     <v>Lifco publ AB, formerly Lifco AB, is a Sweden-based investment company. It is engaged in acquisition and development of niche companies. Its aim is to secure improvement of subsidiaries’ earnings and to deliver cash flows. It has long-term investment holdings, focus on profitability and decentralized organization. The Company is active in three operating segments: Dental, comprising suppliers of consumable goods, materials, equipment and technical services to dentists; Demolition &amp; Tools, providing demolition robots, and attachments to cranes and excavators; and Systems Solutions, offering vehicle interiors, relining, contract manufacturing, environmental technology and sawmill equipment. Its portfolio includes around 100 companies in 30 countries.</v>
     <v>6806</v>
@@ -1994,22 +2001,23 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>Verkmastaregatan 1, ENKOPING, UPPSALA, 745 85 SE</v>
-    <v>11.06</v>
+    <v>11.32</v>
     <v>Holding Companies</v>
     <v>Stock</v>
-    <v>45262.048611111109</v>
-    <v>11.06</v>
-    <v>96507560000</v>
+    <v>45266.048611111109</v>
+    <v>11.32</v>
+    <v>97100930000</v>
     <v>Lifco AB (publ)</v>
     <v>Lifco AB (publ)</v>
+    <v>11.32</v>
     <v>11.06</v>
-    <v>11</v>
-    <v>11.06</v>
+    <v>11.32</v>
+    <v>11.465999999999999</v>
     <v>423836500</v>
     <v>LFCBY</v>
     <v>Lifco AB (publ) (OTCM:LFCBY)</v>
-    <v>100</v>
-    <v>178190</v>
+    <v>2</v>
+    <v>250380</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -2135,6 +2143,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2221,7 +2230,7 @@
       <v t="s">_DisplayString</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="40">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2232,6 +2241,7 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -2367,12 +2377,14 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
     </spb>
     <spb s="11">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2478,12 +2490,14 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -14013,8 +14027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DD8C9A-4E5B-2949-93DF-71D6AA96D808}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14063,7 +14077,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>9187519712</v>
+        <v>9740682900</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>200</v>
@@ -14091,14 +14105,14 @@
       </c>
       <c r="I3" s="74">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>6500314811.1485987</v>
+        <v>6379439032.2802925</v>
       </c>
       <c r="J3" s="75" t="s">
         <v>204</v>
       </c>
       <c r="K3" s="76">
         <f>(Financials!O172*-1)/A3</f>
-        <v>9.9257178061769365E-3</v>
+        <v>9.362046679499237E-3</v>
       </c>
       <c r="L3" s="77" t="s">
         <v>205</v>
@@ -14141,14 +14155,14 @@
       </c>
       <c r="I4" s="82">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>5671545297.6724672</v>
+        <v>5564890919.1030674</v>
       </c>
       <c r="J4" s="80" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="83" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.4660000000000004E-3</v>
+        <v>5.0229999999999997E-3</v>
       </c>
       <c r="L4" s="84" t="s">
         <v>212</v>
@@ -14191,14 +14205,14 @@
       </c>
       <c r="I5" s="82">
         <f>I4+G5-G6</f>
-        <v>4865994100.6724672</v>
+        <v>4759339722.1030674</v>
       </c>
       <c r="J5" s="80" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="86" cm="1">
         <f t="array" ref="K5">_FV(K9,"Price")</f>
-        <v>11.06</v>
+        <v>11.32</v>
       </c>
       <c r="L5" s="87" t="s">
         <v>219</v>
@@ -14216,7 +14230,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="88">
         <f>O20/F10</f>
-        <v>4.0887938193146418</v>
+        <v>4.3349723631508681</v>
       </c>
       <c r="B6" s="79" t="s">
         <v>221</v>
@@ -14244,14 +14258,14 @@
       </c>
       <c r="I6" s="83">
         <f>N25</f>
-        <v>9.438125507806118E-2</v>
+        <v>9.5695871175806621E-2</v>
       </c>
       <c r="J6" s="80" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="89">
         <f>I5/G4</f>
-        <v>11.480828339872728</v>
+        <v>11.229187958335508</v>
       </c>
       <c r="L6" s="90" t="s">
         <v>225</v>
@@ -14269,14 +14283,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <f>O20/F12</f>
-        <v>31.144134616949152</v>
+        <v>33.019264067796612</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="93">
         <f>F15/A3</f>
-        <v>3.9836649223398149E-2</v>
+        <v>3.7574367604144059E-2</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>228</v>
@@ -14303,7 +14317,7 @@
       </c>
       <c r="K7" s="99">
         <f>K6/K5-1</f>
-        <v>3.8049578650336979E-2</v>
+        <v>-8.0222651647077203E-3</v>
       </c>
       <c r="L7" s="90" t="s">
         <v>231</v>
@@ -14331,7 +14345,7 @@
       <c r="J8" s="100"/>
       <c r="K8" s="101" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>9.5200000000000007E-2</v>
+        <v>9.6199999999999994E-2</v>
       </c>
       <c r="L8" s="102" t="e" vm="2">
         <v>#VALUE!</v>
@@ -14622,7 +14636,7 @@
       </c>
       <c r="O14" s="107">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="37"/>
     </row>
@@ -14667,7 +14681,7 @@
       </c>
       <c r="O15" s="108" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5298</v>
+        <v>1.5297000000000001</v>
       </c>
       <c r="P15" s="37"/>
     </row>
@@ -14768,7 +14782,7 @@
       </c>
       <c r="O17" s="110">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10587544200000001</v>
+        <v>0.106665863</v>
       </c>
       <c r="P17" s="37"/>
     </row>
@@ -14844,21 +14858,21 @@
       </c>
       <c r="O20" s="111">
         <f>A3</f>
-        <v>9187519712</v>
+        <v>9740682900</v>
       </c>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="125" t="str" cm="1">
+      <c r="A21" s="124" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Holding Companies</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="126" cm="1">
+      <c r="B21" s="124"/>
+      <c r="C21" s="125" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1993</v>
       </c>
-      <c r="D21" s="126"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="43"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -14872,19 +14886,19 @@
       </c>
       <c r="O21" s="111">
         <f>O19+O20</f>
-        <v>10139997670</v>
+        <v>10693160858</v>
       </c>
       <c r="P21" s="37"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="124" t="str" cm="1">
+      <c r="A22" s="126" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Lifco publ AB, formerly Lifco AB, is a Sweden-based investment company. It is engaged in acquisition and development of niche companies. Its aim is to secure improvement of subsidiaries’ earnings and to deliver cash flows. It has long-term investment holdings, focus on profitability and decentralized organization. The Company is active in three operating segments: Dental, comprising suppliers of consumable goods, materials, equipment and technical services to dentists; Demolition &amp; Tools, providing demolition robots, and attachments to cranes and excavators; and Systems Solutions, offering vehicle interiors, relining, contract manufacturing, environmental technology and sawmill equipment. Its portfolio includes around 100 companies in 30 countries.</v>
       </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -14898,16 +14912,16 @@
       </c>
       <c r="O22" s="112">
         <f>(O19/O21)</f>
-        <v>9.3932759059499868E-2</v>
+        <v>8.9073564930748375E-2</v>
       </c>
       <c r="P22" s="37"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="124"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -14921,16 +14935,16 @@
       </c>
       <c r="O23" s="113">
         <f>O20/O21</f>
-        <v>0.90606724094050017</v>
+        <v>0.91092643506925164</v>
       </c>
       <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="124"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -14946,11 +14960,11 @@
       <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -14961,17 +14975,17 @@
       <c r="M25" s="40"/>
       <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.438125507806118E-2</v>
+        <v>9.5695871175806621E-2</v>
       </c>
       <c r="O25" s="117"/>
       <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="124"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -14985,11 +14999,11 @@
       <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="124"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -15003,11 +15017,11 @@
       <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -15021,11 +15035,11 @@
       <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -15039,11 +15053,11 @@
       <c r="P29" s="37"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
@@ -15821,7 +15835,7 @@
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A22:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/OTCPK:LFCB.Y/explorer/revenue_proj/" xr:uid="{C680169E-31B0-9244-AC49-36ED948D966B}"/>
